--- a/Excel/MonsterConfig@cs.xlsx
+++ b/Excel/MonsterConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>#</t>
   </si>
@@ -28,7 +28,16 @@
     <t>测试说明</t>
   </si>
   <si>
+    <t>模型Id</t>
+  </si>
+  <si>
     <t>AI路径</t>
+  </si>
+  <si>
+    <t>UnitId</t>
+  </si>
+  <si>
+    <t>AIPath</t>
   </si>
   <si>
     <t>int</t>
@@ -1031,31 +1040,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:E6"/>
+  <dimension ref="C2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5">
+    <row r="2" spans="4:6">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:6">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1065,31 +1074,43 @@
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:6">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:6">
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:5">
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MonsterConfig@cs.xlsx
+++ b/Excel/MonsterConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -34,6 +34,9 @@
     <t>AI路径</t>
   </si>
   <si>
+    <t>PseFSM</t>
+  </si>
+  <si>
     <t>UnitId</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t>Unit/Wolf/ConfigAIBeta.bytes</t>
+  </si>
+  <si>
+    <t>Unit/Wolf/PoseConfig.bytes</t>
   </si>
 </sst>
 </file>
@@ -1040,13 +1046,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:F6"/>
+  <dimension ref="C2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1056,15 +1062,18 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6">
+    <row r="2" spans="4:7">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="3:6">
+    <row r="3" spans="3:7">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1077,32 +1086,41 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:7">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:7">
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" spans="3:7">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1110,7 +1128,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MonsterConfig@cs.xlsx
+++ b/Excel/MonsterConfig@cs.xlsx
@@ -34,7 +34,7 @@
     <t>AI路径</t>
   </si>
   <si>
-    <t>PseFSM</t>
+    <t>PoseFSM</t>
   </si>
   <si>
     <t>UnitId</t>
@@ -1049,7 +1049,7 @@
   <dimension ref="C2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1059,7 +1059,8 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="5" width="15.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="21.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:7">

--- a/Excel/MonsterConfig@cs.xlsx
+++ b/Excel/MonsterConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -37,12 +37,21 @@
     <t>PoseFSM</t>
   </si>
   <si>
+    <t>EntityConfig</t>
+  </si>
+  <si>
+    <t>Ability路径</t>
+  </si>
+  <si>
     <t>UnitId</t>
   </si>
   <si>
     <t>AIPath</t>
   </si>
   <si>
+    <t>Abilities</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -53,6 +62,12 @@
   </si>
   <si>
     <t>Unit/Wolf/PoseConfig.bytes</t>
+  </si>
+  <si>
+    <t>Unit/Wolf/ConfigEntity.bytes</t>
+  </si>
+  <si>
+    <t>Unit/Wolf/Abilities.bytes</t>
   </si>
 </sst>
 </file>
@@ -1046,24 +1061,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:G6"/>
+  <dimension ref="C2:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="5" width="15.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="21.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.125" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:7">
+    <row r="2" spans="4:9">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1073,8 +1090,14 @@
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1090,38 +1113,56 @@
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:9">
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:7">
+    <row r="6" s="1" customFormat="1" spans="3:9">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1129,10 +1170,16 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MonsterConfig@cs.xlsx
+++ b/Excel/MonsterConfig@cs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\sonofvoid\MonkeyKing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED4416-B7EE-403C-9EDD-F519FB35FF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>#</t>
   </si>
@@ -46,18 +40,12 @@
     <t>EntityConfig</t>
   </si>
   <si>
-    <t>Ability路径</t>
-  </si>
-  <si>
     <t>UnitId</t>
   </si>
   <si>
     <t>AIPath</t>
   </si>
   <si>
-    <t>Abilities</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -73,27 +61,23 @@
     <t>Unit/Wolf/ConfigEntity.bytes</t>
   </si>
   <si>
-    <t>Unit/Wolf/Abilities.bytes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Unit/Knight/ConfigAIBeta.bytes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Unit/Knight/PoseConfig.bytes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit/Knight/Abilities.bytes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,27 +99,157 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +262,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -157,10 +457,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -173,22 +715,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -475,32 +1061,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="21.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.1083333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.775" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.1083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.8833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.1083333333333" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:8">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,11 +1098,8 @@
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -536,20 +1118,17 @@
       <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>6</v>
@@ -557,32 +1136,26 @@
       <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8">
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:9" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -590,19 +1163,16 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="7" spans="3:9" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" s="1" customFormat="1" spans="3:8">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -610,21 +1180,18 @@
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/MonsterConfig@cs.xlsx
+++ b/Excel/MonsterConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>#</t>
   </si>
@@ -37,9 +37,6 @@
     <t>PoseFSM</t>
   </si>
   <si>
-    <t>EntityConfig</t>
-  </si>
-  <si>
     <t>UnitId</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>Unit/Wolf/PoseConfig.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/ConfigEntity.bytes</t>
   </si>
   <si>
     <t>Unit/Knight/ConfigAIBeta.bytes</t>
@@ -72,12 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,14 +93,76 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,45 +176,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -167,8 +184,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,68 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,37 +252,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,13 +384,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,127 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,11 +446,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,26 +478,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,16 +532,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,19 +561,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,117 +582,117 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -714,9 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1067,13 +1052,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:H7"/>
+  <dimension ref="C2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection activeCell="H2" sqref="H2:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="21.1083333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.775" style="2" customWidth="1"/>
@@ -1081,11 +1066,12 @@
     <col min="4" max="5" width="15.1083333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.1083333333333" style="2" customWidth="1"/>
     <col min="7" max="8" width="21.8833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.1083333333333" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="23.1083333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8">
+    <row r="2" spans="4:10">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1095,11 +1081,11 @@
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:10">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1115,47 +1101,47 @@
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:10">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:10">
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" s="1" customFormat="1" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1163,31 +1149,31 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:8">
+    <row r="7" s="1" customFormat="1" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/MonsterConfig@cs.xlsx
+++ b/Excel/MonsterConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,10 @@
     <t>Unit/Wolf/PoseConfig.bytes</t>
   </si>
   <si>
-    <t>Unit/Knight/ConfigAIBeta.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Knight/PoseConfig.bytes</t>
+    <t>Unit/Man/ConfigAIBeta.bytes</t>
+  </si>
+  <si>
+    <t>Unit/Man/PoseConfig.bytes</t>
   </si>
 </sst>
 </file>
@@ -1055,23 +1055,23 @@
   <dimension ref="C2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="21.1083333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.775" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="5" width="15.1083333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.1083333333333" style="2" customWidth="1"/>
-    <col min="7" max="8" width="21.8833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.1083333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1090909090909" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6636363636364" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.1090909090909" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.1090909090909" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.8818181818182" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.1090909090909" style="2" customWidth="1"/>
     <col min="10" max="10" width="28" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10">
+    <row r="2" ht="14" spans="4:10">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" ht="14" spans="3:10">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" ht="14" spans="3:10">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="3:10">
+    <row r="5" ht="14" spans="3:10">
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:10">
+    <row r="6" s="1" customFormat="1" ht="14" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:10">
+    <row r="7" s="1" customFormat="1" ht="14" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>

--- a/Excel/MonsterConfig@cs.xlsx
+++ b/Excel/MonsterConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -49,16 +49,16 @@
     <t>string</t>
   </si>
   <si>
-    <t>Unit/Wolf/ConfigAIBeta.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/PoseConfig.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Man/ConfigAIBeta.bytes</t>
-  </si>
-  <si>
-    <t>Unit/Man/PoseConfig.bytes</t>
+    <t>Unit/Wolf/ConfigAIBeta</t>
+  </si>
+  <si>
+    <t>Unit/Wolf/PoseConfig</t>
+  </si>
+  <si>
+    <t>Unit/Man/ConfigAIBeta</t>
+  </si>
+  <si>
+    <t>Unit/Man/PoseConfig</t>
   </si>
 </sst>
 </file>
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -93,6 +93,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -101,7 +154,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,8 +167,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,14 +185,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -139,14 +193,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,78 +222,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,25 +252,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,19 +360,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,133 +408,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,26 +461,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,17 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1055,23 +1055,23 @@
   <dimension ref="C2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="21.1090909090909" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6636363636364" style="2" customWidth="1"/>
-    <col min="4" max="5" width="15.1090909090909" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.1090909090909" style="2" customWidth="1"/>
-    <col min="7" max="8" width="21.8818181818182" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.1090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1083333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.775" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.1083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" style="2" customWidth="1"/>
+    <col min="7" max="8" width="21.8833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.1083333333333" style="2" customWidth="1"/>
     <col min="10" max="10" width="28" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14" spans="4:10">
+    <row r="2" spans="4:10">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" ht="14" spans="3:10">
+    <row r="3" spans="3:10">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" ht="14" spans="3:10">
+    <row r="4" spans="3:10">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" ht="14" spans="3:10">
+    <row r="5" spans="3:10">
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="14" spans="3:10">
+    <row r="6" s="1" customFormat="1" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="14" spans="3:10">
+    <row r="7" s="1" customFormat="1" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>

--- a/Excel/MonsterConfig@cs.xlsx
+++ b/Excel/MonsterConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>#</t>
   </si>
@@ -48,18 +48,6 @@
   <si>
     <t>string</t>
   </si>
-  <si>
-    <t>Unit/Wolf/ConfigAIBeta</t>
-  </si>
-  <si>
-    <t>Unit/Wolf/PoseConfig</t>
-  </si>
-  <si>
-    <t>Unit/Man/ConfigAIBeta</t>
-  </si>
-  <si>
-    <t>Unit/Man/PoseConfig</t>
-  </si>
 </sst>
 </file>
 
@@ -67,9 +55,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -94,13 +82,50 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -108,9 +133,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,19 +197,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -154,84 +212,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,187 +240,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +431,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,15 +460,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,30 +479,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -520,6 +490,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1055,7 +1043,7 @@
   <dimension ref="C2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1148,29 +1136,13 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:10">
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="7" s="1" customFormat="1" spans="8:10">
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>

--- a/Excel/MonsterConfig@cs.xlsx
+++ b/Excel/MonsterConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="19710" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Unit/Fox/ConfigAIBeta</t>
+  </si>
+  <si>
+    <t>Unit/Fox/PoseConfig</t>
   </si>
 </sst>
 </file>
@@ -54,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -81,6 +87,118 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -89,92 +207,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,43 +230,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -246,181 +252,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,6 +437,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,17 +479,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +503,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -493,54 +537,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +555,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1043,7 +1049,7 @@
   <dimension ref="C2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1136,13 +1142,23 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="8:10">
+    <row r="7" s="1" customFormat="1" spans="3:10">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>

--- a/Excel/MonsterConfig@cs.xlsx
+++ b/Excel/MonsterConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19710" windowHeight="11670"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -95,30 +95,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,26 +163,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,15 +178,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -178,56 +203,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -246,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,11 +455,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,15 +499,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,8 +521,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,166 +537,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1049,7 +1049,7 @@
   <dimension ref="C2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>

--- a/Excel/MonsterConfig@cs.xlsx
+++ b/Excel/MonsterConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>#</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Unit/MuZhuang/ConfigAIBeta</t>
   </si>
   <si>
     <t>Unit/Fox/ConfigAIBeta</t>
@@ -1049,7 +1052,7 @@
   <dimension ref="C2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1142,6 +1145,9 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -1154,10 +1160,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
